--- a/fonds.xlsx
+++ b/fonds.xlsx
@@ -1,37 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_757726AD08009EC45138AE0F95BC82D136014820" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>MSCI Emerging Markets</t>
+  </si>
+  <si>
+    <t>CAC40</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +67,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,188 +391,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MSCI Emerging Markets</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CAC40</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hang Seng</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2012</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0487293399723705</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>4.87293399723705E-2</v>
+      </c>
+      <c r="C2">
         <v>0.1155019748934472</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.2002133626788163</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>0.20021336267881629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2013</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.05026710616049102</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1505170887604113</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.0002397841748122964</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>-5.0267106160491022E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.15051708876041131</v>
+      </c>
+      <c r="D3">
+        <v>-2.3978417481229641E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2014</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.04622703608401657</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01075637698771348</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01135337212786669</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>-4.6227036084016571E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.075637698771348E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.135337212786669E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2015</v>
       </c>
-      <c r="B5" t="n">
-        <v>-0.1695528506295227</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09991089368398565</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.07617206183934366</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>-0.16955285062952269</v>
+      </c>
+      <c r="C5">
+        <v>9.9910893683985647E-2</v>
+      </c>
+      <c r="D5">
+        <v>-7.6172061839343663E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2016</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0856952191485878</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07514949846783225</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03157676391019715</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>8.5695219148587798E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.5149498467832254E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.1576763910197148E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2017</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.344096625980415</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08810870647281033</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3507272944445983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>0.34409662598041502</v>
+      </c>
+      <c r="C7">
+        <v>8.8108706472810328E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.35072729444459833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2018</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-0.1657638978877802</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-0.1054929748254148</v>
       </c>
-      <c r="D8" t="n">
-        <v>-0.1530251943793205</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D8">
+        <v>-0.15302519437932049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2019</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1539759609909621</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2748054404414337</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1217412586215803</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>0.15397596099096211</v>
+      </c>
+      <c r="C9">
+        <v>0.27480544044143368</v>
+      </c>
+      <c r="D9">
+        <v>0.12174125862158031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>2020</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.1584547477212372</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.08112055681536046</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.04597851608925341</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>0.15845474772123719</v>
+      </c>
+      <c r="C10">
+        <v>-8.1120556815360456E-2</v>
+      </c>
+      <c r="D10">
+        <v>-4.5978516089253407E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>2021</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.04624733888136245</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2798498888727323</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>-4.6247338881362447E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.27984988887273232</v>
+      </c>
+      <c r="D11">
         <v>-0.1483335903339166</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
-        <v>-0.224661532225375</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.1030120221986326</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.1500914013684357</v>
+      <c r="B12">
+        <v>-0.22466153222537499</v>
+      </c>
+      <c r="C12">
+        <v>-0.10301202219863261</v>
+      </c>
+      <c r="D12">
+        <v>-0.15009140136843571</v>
       </c>
     </row>
   </sheetData>
@@ -610,6 +569,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -792,19 +760,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662576F6-6ACF-49E1-BBAD-F2AB97A26C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923FD6C2-92A7-4D16-892D-F7D334192DC7}"/>
-</file>
-
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662576F6-6ACF-49E1-BBAD-F2AB97A26C0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923FD6C2-92A7-4D16-892D-F7D334192DC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>